--- a/plastics/baseline_model/conversion-tables/defra_recycling_valpak_conversion2.xlsx
+++ b/plastics/baseline_model/conversion-tables/defra_recycling_valpak_conversion2.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/ce_observatory_data_scripts/plastics/baseline_model/conversion-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18341F-F69B-714A-8802-9E3D5026BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC164F2-0D76-2B41-83CF-BDA0AB3634C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A0BC333C-09FB-6C4E-9212-E1C7E07B9242}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A0BC333C-09FB-6C4E-9212-E1C7E07B9242}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId2"/>
-    <sheet name="valpak_bom" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="valpak_bom" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="58">
   <si>
     <t>Bottle</t>
   </si>
@@ -215,18 +214,12 @@
   <si>
     <t xml:space="preserve">Other </t>
   </si>
-  <si>
-    <t>Consumer</t>
-  </si>
-  <si>
-    <t>Non-consumer</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,13 +247,6 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,29 +292,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -652,10 +628,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57F3CC1E-1ED3-C74A-B522-A9B378708F1A}" name="Table1" displayName="Table1" ref="A1:AI37" totalsRowShown="0">
-  <autoFilter ref="A1:AI37" xr:uid="{57F3CC1E-1ED3-C74A-B522-A9B378708F1A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI37">
-    <sortCondition ref="B1:B37"/>
-  </sortState>
+  <autoFilter ref="A1:AI37" xr:uid="{57F3CC1E-1ED3-C74A-B522-A9B378708F1A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2020"/>
+        <filter val="2021"/>
+        <filter val="2022"/>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{1A3F43D3-D4D5-8E45-9CB0-C1A95991DF07}" name="year"/>
     <tableColumn id="2" xr3:uid="{65D65D46-254D-7540-92A2-06555FCD9FDD}" name="defra_category" dataDxfId="16"/>
@@ -1040,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAD0895-2F52-4B45-A2F9-1E3D62B101AA}">
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,7 +1158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1280,11 +1262,11 @@
         <v>1.9184651752391004E-3</v>
       </c>
       <c r="AI2">
-        <f>SUM(C2:AH2)</f>
+        <f t="shared" ref="AI2:AI37" si="0">SUM(C2:AH2)</f>
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1388,11 +1370,11 @@
         <v>4.0179627027533494E-3</v>
       </c>
       <c r="AI3">
-        <f>SUM(C3:AH3)</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1496,11 +1478,11 @@
         <v>6.0577818819616295E-3</v>
       </c>
       <c r="AI4">
-        <f>SUM(C4:AH4)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -1604,11 +1586,11 @@
         <v>6.0577818819616295E-3</v>
       </c>
       <c r="AI5">
-        <f>SUM(C5:AH5)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1712,11 +1694,11 @@
         <v>6.0577818819616295E-3</v>
       </c>
       <c r="AI6">
-        <f>SUM(C6:AH6)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -1820,7 +1802,7 @@
         <v>6.0577818819616295E-3</v>
       </c>
       <c r="AI7">
-        <f>SUM(C7:AH7)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -1928,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUM(C8:AH8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2036,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>SUM(C9:AH9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2144,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUM(C10:AH10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2249,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUM(C11:AH11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2357,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <f>SUM(C12:AH12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2465,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <f>SUM(C13:AH13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2573,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <f>SUM(C14:AH14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2681,11 +2663,11 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <f>SUM(C15:AH15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -2789,11 +2771,11 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <f>SUM(C16:AH16)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -2897,11 +2879,11 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <f>SUM(C17:AH17)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -3005,11 +2987,11 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <f>SUM(C18:AH18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -3113,11 +3095,11 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <f>SUM(C19:AH19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -3221,11 +3203,11 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <f>SUM(C20:AH20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -3329,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <f>SUM(C21:AH21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3389,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.12195121909954393</v>
+        <v>0.17886178801266445</v>
       </c>
       <c r="T22">
-        <v>0.28455284456560254</v>
+        <v>0.17764227565248203</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3401,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0.19512195225114023</v>
+        <v>0.24512195225114025</v>
       </c>
       <c r="X22">
         <v>0.39837398408371344</v>
@@ -3437,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <f>SUM(C22:AH22)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -3497,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.12195121909954393</v>
+        <v>0.17886178801266445</v>
       </c>
       <c r="T23">
-        <v>0.28455284456560254</v>
+        <v>0.17764227565248203</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3509,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0.19512195225114023</v>
+        <v>0.24512195225114025</v>
       </c>
       <c r="X23">
         <v>0.39837398408371344</v>
@@ -3545,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <f>SUM(C23:AH23)</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -3605,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.21186440723385161</v>
+        <v>0.23983050883075732</v>
       </c>
       <c r="T24">
-        <v>0.13983050798452851</v>
+        <v>6.1864406387622806E-2</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3617,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0.2161016949272066</v>
+        <v>0.26610169492720659</v>
       </c>
       <c r="X24">
         <v>0.4322033898544132</v>
@@ -3653,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <f>SUM(C24:AH24)</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -3713,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.2277904328485946</v>
+        <v>0.25603644639862216</v>
       </c>
       <c r="T25">
-        <v>0.14123006775013774</v>
+        <v>6.298405420011019E-2</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3725,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0.21640091120616486</v>
+        <v>0.26640091120616488</v>
       </c>
       <c r="X25">
         <v>0.41457858819510268</v>
@@ -3761,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <f>SUM(C25:AH25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3797,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2.6836158328259762E-2</v>
+        <v>0.27683615832825975</v>
       </c>
       <c r="L26">
-        <v>0.69322033896411994</v>
+        <v>0.30457627117129593</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3809,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>4.6610169511452651E-2</v>
+        <v>0.18525423730427665</v>
       </c>
       <c r="P26">
         <v>0.23333333319616761</v>
@@ -3817,6 +3799,9 @@
       <c r="Q26">
         <v>0</v>
       </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
       <c r="S26">
         <v>0</v>
       </c>
@@ -3866,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <f>SUM(C26:AH26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3902,13 +3887,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>2.6836158328259762E-2</v>
+        <v>0.27683615832825975</v>
       </c>
       <c r="L27">
-        <v>0.69322033896411994</v>
+        <v>0.30457627117129593</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>4.6610169511452651E-2</v>
+        <v>0.18525423730427665</v>
       </c>
       <c r="P27">
         <v>0.23333333319616761</v>
@@ -3916,6 +3907,9 @@
       <c r="Q27">
         <v>0</v>
       </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
       <c r="S27">
         <v>0</v>
       </c>
@@ -3965,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <f>SUM(C27:AH27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4001,13 +3995,19 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>2.4024024152094432E-2</v>
+        <v>0.27402402415209443</v>
       </c>
       <c r="L28">
-        <v>0.63333333314452944</v>
+        <v>0.25666666651562353</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>5.5555555685126781E-2</v>
+        <v>0.18222222231403268</v>
       </c>
       <c r="P28">
         <v>0.2870870870182492</v>
@@ -4015,6 +4015,9 @@
       <c r="Q28">
         <v>0</v>
       </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
       <c r="S28">
         <v>0</v>
       </c>
@@ -4064,8 +4067,8 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <f>SUM(C28:AH28)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
@@ -4100,13 +4103,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3.0007501264183074E-2</v>
+        <v>0.28000750126418306</v>
       </c>
       <c r="L29">
-        <v>0.66556639311926546</v>
+        <v>0.28245311449541233</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>6.0765189806388571E-2</v>
+        <v>0.19387846843024167</v>
       </c>
       <c r="P29">
         <v>0.2436609158101628</v>
@@ -4114,6 +4123,9 @@
       <c r="Q29">
         <v>0</v>
       </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
       <c r="S29">
         <v>0</v>
       </c>
@@ -4163,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <f>SUM(C29:AH29)</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -4271,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <f>SUM(C30:AH30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4379,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <f>SUM(C31:AH31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4487,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <f>SUM(C32:AH32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4595,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <f>SUM(C33:AH33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4679,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>7.4370708320120021E-2</v>
+        <v>0.16733409500945767</v>
       </c>
       <c r="AB34">
         <v>0.16361556346101463</v>
@@ -4694,7 +4706,7 @@
         <v>0.39016018146151471</v>
       </c>
       <c r="AF34">
-        <v>0.37185354675735066</v>
+        <v>0.27889016006801298</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -4703,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <f>SUM(C34:AH34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4787,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>6.2068965626300453E-2</v>
+        <v>0.15574712652150763</v>
       </c>
       <c r="AB35">
         <v>0.18160919519238952</v>
@@ -4802,7 +4814,7 @@
         <v>0.38160919560048151</v>
       </c>
       <c r="AF35">
-        <v>0.37471264358082867</v>
+        <v>0.28103448268562148</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -4811,8 +4823,8 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <f>SUM(C35:AH35)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
@@ -4895,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>3.7422037644204077E-2</v>
+        <v>0.1361746363821866</v>
       </c>
       <c r="AB36">
         <v>8.523908519231331E-2</v>
@@ -4910,7 +4922,7 @@
         <v>0.4823284822115525</v>
       </c>
       <c r="AF36">
-        <v>0.39501039495193008</v>
+        <v>0.29625779621394754</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -4919,8 +4931,8 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <f>SUM(C36:AH36)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
@@ -5003,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>3.7422037644204077E-2</v>
+        <v>0.1361746363821866</v>
       </c>
       <c r="AB37">
         <v>8.523908519231331E-2</v>
@@ -5018,7 +5030,7 @@
         <v>0.4823284822115525</v>
       </c>
       <c r="AF37">
-        <v>0.39501039495193008</v>
+        <v>0.29625779621394754</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -5027,501 +5039,47 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <f>SUM(C37:AH37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AH42" s="6"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AH42" s="4"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AH43" s="7"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AH44" s="6"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AH45" s="8"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-    </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-    </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-    </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-    </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-    </row>
-    <row r="55" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-    </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AH45" s="5"/>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5532,450 +5090,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17372B7-436D-8045-9EE7-47BE5C211D03}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="2">
-        <v>4.3248438000000004E-3</v>
-      </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.8053820000000004E-3</v>
-      </c>
-      <c r="G2" s="9">
-        <f>SUM(F1:F2)</f>
-        <v>9.1302258000000008E-3</v>
-      </c>
-      <c r="H2" s="9">
-        <f>G2/$G$18</f>
-        <v>2.6836158042221066E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>129</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.7962518000000001E-2</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H16" si="0">G3/$G$18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>181</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.10908217200000001</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G3:G16" si="1">SUM(F3:F4)</f>
-        <v>0.14704469000000001</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>0.43220338976823586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>233</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.7481979800000002E-2</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>285</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.9221527999999999E-3</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="1"/>
-        <v>3.9404132600000003E-2</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.11581920898059664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>337</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.9702066300000001E-2</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>389</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.8053820300000001E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="1"/>
-        <v>6.7755886600000009E-2</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.19915254243639938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>441</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.4896684300000001E-2</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>493</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9.6107639999999997E-4</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5857760700000001E-2</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>4.6610169525152609E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>545</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4.7092743899999998E-2</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>597</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.00913023E-2</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="1"/>
-        <v>5.7184046199999998E-2</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16807909628224865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>649</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>701</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>753</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4.8053819999999999E-4</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>805</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2023</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3.3637673999999998E-3</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="1"/>
-        <v>3.8443055999999999E-3</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="0"/>
-        <v>1.129943496514571E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="10">
-        <f>SUM(G1:G16)</f>
-        <v>0.34022104750000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7690EB80-7EC8-E945-AF04-1599BDB2AE37}">
   <dimension ref="A1:D386"/>
   <sheetViews>
@@ -11400,7 +10514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C8D1E-3FE8-304C-8269-709B8FAAC0E7}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
@@ -12176,7 +11290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8013298E-545D-4141-A0CD-320FAE66320A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
